--- a/biology/Biologie cellulaire et moléculaire/Microcompartiment_bactérien/Microcompartiment_bactérien.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microcompartiment_bactérien/Microcompartiment_bactérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microcompartiment_bact%C3%A9rien</t>
+          <t>Microcompartiment_bactérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un microcompartiment bactérien, également appelé nanocompartiment en raison de la taille réduite de ce genre de structure, est un type d'organite, répandu chez diverses bactéries, constitué d'une coque protéique polyédrique qui renferme diverses enzymes. Ces compartiments font typiquement de 100 à 200 nm dans leur plus grande dimension et sont constitués de protéines emboîtées les unes dans les autres[6]. Ils ne contiennent pas de lipides car ils ne sont pas entourés d'une membrane. De tels compartiments inclus dans une coque protéique existent également chez les archées — comme les nanocompartiments sphériques à encapsulines de Methanoregula[7] — et les eucaryotes (notamment les « voûtes »).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un microcompartiment bactérien, également appelé nanocompartiment en raison de la taille réduite de ce genre de structure, est un type d'organite, répandu chez diverses bactéries, constitué d'une coque protéique polyédrique qui renferme diverses enzymes. Ces compartiments font typiquement de 100 à 200 nm dans leur plus grande dimension et sont constitués de protéines emboîtées les unes dans les autres. Ils ne contiennent pas de lipides car ils ne sont pas entourés d'une membrane. De tels compartiments inclus dans une coque protéique existent également chez les archées — comme les nanocompartiments sphériques à encapsulines de Methanoregula — et les eucaryotes (notamment les « voûtes »).
 </t>
         </is>
       </c>
